--- a/data/All Stats.xlsx
+++ b/data/All Stats.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PP\Documents\nss-data-analytics\GH-Personal-Repos\Jordan_vs_Lebron_apeay905\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A60596-986A-48A7-A272-9787474F18F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A67156-48CD-4465-8D19-E91BE9DA9EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB00A9DD-5E85-4F51-9392-20FE488FB754}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB00A9DD-5E85-4F51-9392-20FE488FB754}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MJ" sheetId="1" r:id="rId1"/>
+    <sheet name="Bron" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="60">
   <si>
     <t>Year</t>
   </si>
@@ -220,7 +221,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,14 +254,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -565,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34869A85-58AA-4011-8F7E-4D1E573E3CF4}">
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +711,7 @@
       <c r="J2">
         <v>19.8</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>0.51500000000000001</v>
       </c>
       <c r="L2">
@@ -708,7 +720,7 @@
       <c r="M2">
         <v>0.6</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>0.17299999999999999</v>
       </c>
       <c r="O2">
@@ -717,10 +729,10 @@
       <c r="P2">
         <v>19.2</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>0.52600000000000002</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>0.51800000000000002</v>
       </c>
       <c r="S2">
@@ -729,7 +741,7 @@
       <c r="T2">
         <v>9.1</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>0.84499999999999997</v>
       </c>
       <c r="V2">
@@ -791,7 +803,7 @@
       <c r="J3">
         <v>18.2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>0.45700000000000002</v>
       </c>
       <c r="L3">
@@ -800,7 +812,7 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>0.16700000000000001</v>
       </c>
       <c r="O3">
@@ -809,10 +821,10 @@
       <c r="P3">
         <v>17.2</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>0.47399999999999998</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>0.46200000000000002</v>
       </c>
       <c r="S3">
@@ -821,7 +833,7 @@
       <c r="T3">
         <v>6.9</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>0.84</v>
       </c>
       <c r="V3">
@@ -883,7 +895,7 @@
       <c r="J4">
         <v>27.8</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>0.48199999999999998</v>
       </c>
       <c r="L4">
@@ -892,7 +904,7 @@
       <c r="M4">
         <v>0.8</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>0.182</v>
       </c>
       <c r="O4">
@@ -901,10 +913,10 @@
       <c r="P4">
         <v>27</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>0.49099999999999999</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>0.48399999999999999</v>
       </c>
       <c r="S4">
@@ -913,7 +925,7 @@
       <c r="T4">
         <v>11.9</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>0.85699999999999998</v>
       </c>
       <c r="V4">
@@ -975,7 +987,7 @@
       <c r="J5">
         <v>24.4</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>0.53500000000000003</v>
       </c>
       <c r="L5">
@@ -984,7 +996,7 @@
       <c r="M5">
         <v>0.6</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>0.13200000000000001</v>
       </c>
       <c r="O5">
@@ -993,10 +1005,10 @@
       <c r="P5">
         <v>23.7</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>0.54600000000000004</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>0.53700000000000003</v>
       </c>
       <c r="S5">
@@ -1005,7 +1017,7 @@
       <c r="T5">
         <v>10.5</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>0.84099999999999997</v>
       </c>
       <c r="V5">
@@ -1067,7 +1079,7 @@
       <c r="J6">
         <v>22.2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>0.53800000000000003</v>
       </c>
       <c r="L6">
@@ -1076,7 +1088,7 @@
       <c r="M6">
         <v>1.2</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>0.27600000000000002</v>
       </c>
       <c r="O6">
@@ -1085,10 +1097,10 @@
       <c r="P6">
         <v>21</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>0.55300000000000005</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>0.54600000000000004</v>
       </c>
       <c r="S6">
@@ -1097,7 +1109,7 @@
       <c r="T6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="1">
         <v>0.85</v>
       </c>
       <c r="V6">
@@ -1159,7 +1171,7 @@
       <c r="J7">
         <v>24</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>0.52600000000000002</v>
       </c>
       <c r="L7">
@@ -1168,7 +1180,7 @@
       <c r="M7">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>0.376</v>
       </c>
       <c r="O7">
@@ -1177,10 +1189,10 @@
       <c r="P7">
         <v>21</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>0.54800000000000004</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="S7">
@@ -1189,7 +1201,7 @@
       <c r="T7">
         <v>8.5</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="1">
         <v>0.84799999999999998</v>
       </c>
       <c r="V7">
@@ -1251,7 +1263,7 @@
       <c r="J8">
         <v>22.4</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>0.53900000000000003</v>
       </c>
       <c r="L8">
@@ -1260,7 +1272,7 @@
       <c r="M8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>0.312</v>
       </c>
       <c r="O8">
@@ -1269,10 +1281,10 @@
       <c r="P8">
         <v>21.3</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>0.55100000000000005</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>0.54700000000000004</v>
       </c>
       <c r="S8">
@@ -1281,7 +1293,7 @@
       <c r="T8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="1">
         <v>0.85099999999999998</v>
       </c>
       <c r="V8">
@@ -1343,7 +1355,7 @@
       <c r="J9">
         <v>22.7</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>0.51900000000000002</v>
       </c>
       <c r="L9">
@@ -1352,7 +1364,7 @@
       <c r="M9">
         <v>1.3</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>0.27</v>
       </c>
       <c r="O9">
@@ -1361,10 +1373,10 @@
       <c r="P9">
         <v>21.5</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>0.53300000000000003</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>0.52600000000000002</v>
       </c>
       <c r="S9">
@@ -1373,7 +1385,7 @@
       <c r="T9">
         <v>7.4</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="1">
         <v>0.83199999999999996</v>
       </c>
       <c r="V9">
@@ -1435,7 +1447,7 @@
       <c r="J10">
         <v>25.7</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>0.495</v>
       </c>
       <c r="L10">
@@ -1444,7 +1456,7 @@
       <c r="M10">
         <v>2.9</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>0.35199999999999998</v>
       </c>
       <c r="O10">
@@ -1453,10 +1465,10 @@
       <c r="P10">
         <v>22.7</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>0.51400000000000001</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>0.51500000000000001</v>
       </c>
       <c r="S10">
@@ -1465,7 +1477,7 @@
       <c r="T10">
         <v>7.3</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="1">
         <v>0.83699999999999997</v>
       </c>
       <c r="V10">
@@ -1527,7 +1539,7 @@
       <c r="J11">
         <v>23.8</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>0.41099999999999998</v>
       </c>
       <c r="L11">
@@ -1536,7 +1548,7 @@
       <c r="M11">
         <v>1.9</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>0.5</v>
       </c>
       <c r="O11">
@@ -1545,10 +1557,10 @@
       <c r="P11">
         <v>21.9</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <v>0.40300000000000002</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>0.43099999999999999</v>
       </c>
       <c r="S11">
@@ -1557,7 +1569,7 @@
       <c r="T11">
         <v>8</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="1">
         <v>0.80100000000000005</v>
       </c>
       <c r="V11">
@@ -1619,7 +1631,7 @@
       <c r="J12">
         <v>22.6</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>0.495</v>
       </c>
       <c r="L12">
@@ -1628,7 +1640,7 @@
       <c r="M12">
         <v>3.2</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>0.42699999999999999</v>
       </c>
       <c r="O12">
@@ -1637,10 +1649,10 @@
       <c r="P12">
         <v>19.399999999999999</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="1">
         <v>0.50600000000000001</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1">
         <v>0.52500000000000002</v>
       </c>
       <c r="S12">
@@ -1649,7 +1661,7 @@
       <c r="T12">
         <v>8</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <v>0.83399999999999996</v>
       </c>
       <c r="V12">
@@ -1711,7 +1723,7 @@
       <c r="J13">
         <v>23.1</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>0.48599999999999999</v>
       </c>
       <c r="L13">
@@ -1720,7 +1732,7 @@
       <c r="M13">
         <v>3.6</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>0.374</v>
       </c>
       <c r="O13">
@@ -1729,10 +1741,10 @@
       <c r="P13">
         <v>19.5</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <v>0.50700000000000001</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>0.51600000000000001</v>
       </c>
       <c r="S13">
@@ -1741,7 +1753,7 @@
       <c r="T13">
         <v>7</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="1">
         <v>0.83299999999999996</v>
       </c>
       <c r="V13">
@@ -1803,7 +1815,7 @@
       <c r="J14">
         <v>23.1</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>0.46500000000000002</v>
       </c>
       <c r="L14">
@@ -1812,7 +1824,7 @@
       <c r="M14">
         <v>1.5</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>0.23799999999999999</v>
       </c>
       <c r="O14">
@@ -1821,10 +1833,10 @@
       <c r="P14">
         <v>21.5</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="1">
         <v>0.48199999999999998</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>0.47299999999999998</v>
       </c>
       <c r="S14">
@@ -1833,7 +1845,7 @@
       <c r="T14">
         <v>8.8000000000000007</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <v>0.78400000000000003</v>
       </c>
       <c r="V14">
@@ -1895,7 +1907,7 @@
       <c r="J15">
         <v>22.1</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>0.41599999999999998</v>
       </c>
       <c r="L15">
@@ -1904,7 +1916,7 @@
       <c r="M15">
         <v>0.9</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>0.189</v>
       </c>
       <c r="O15">
@@ -1913,10 +1925,10 @@
       <c r="P15">
         <v>21.2</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>0.42599999999999999</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>0.42</v>
       </c>
       <c r="S15">
@@ -1925,7 +1937,7 @@
       <c r="T15">
         <v>5.6</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="1">
         <v>0.79</v>
       </c>
       <c r="V15">
@@ -1987,7 +1999,7 @@
       <c r="J16">
         <v>18.600000000000001</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>0.44500000000000001</v>
       </c>
       <c r="L16">
@@ -1996,7 +2008,7 @@
       <c r="M16">
         <v>0.7</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>0.29099999999999998</v>
       </c>
       <c r="O16">
@@ -2005,10 +2017,10 @@
       <c r="P16">
         <v>18</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>0.45</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>0.45</v>
       </c>
       <c r="S16">
@@ -2017,7 +2029,7 @@
       <c r="T16">
         <v>4</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="1">
         <v>0.82099999999999995</v>
       </c>
       <c r="V16">
@@ -2048,1659 +2060,1903 @@
         <v>20</v>
       </c>
     </row>
+    <row r="17" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="K35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="37" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91562B23-CA50-4EDC-863D-ED7490FA2A0C}">
+  <dimension ref="A1:AD19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2">
+        <v>79</v>
+      </c>
+      <c r="G2">
+        <v>79</v>
+      </c>
+      <c r="H2">
+        <v>39.5</v>
+      </c>
+      <c r="I2">
+        <v>7.9</v>
+      </c>
+      <c r="J2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="L2">
+        <v>0.8</v>
+      </c>
+      <c r="M2">
+        <v>2.7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O2">
+        <v>7.1</v>
+      </c>
+      <c r="P2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.438</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.438</v>
+      </c>
+      <c r="S2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T2">
+        <v>5.8</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.754</v>
+      </c>
+      <c r="V2">
+        <v>1.3</v>
+      </c>
+      <c r="W2">
+        <v>4.2</v>
+      </c>
+      <c r="X2">
+        <v>5.5</v>
+      </c>
+      <c r="Y2">
+        <v>5.9</v>
+      </c>
+      <c r="Z2">
+        <v>1.6</v>
+      </c>
+      <c r="AA2">
+        <v>0.7</v>
+      </c>
+      <c r="AB2">
+        <v>3.5</v>
+      </c>
+      <c r="AC2">
+        <v>1.9</v>
+      </c>
+      <c r="AD2">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2005</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3">
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>42.4</v>
+      </c>
+      <c r="I3">
+        <v>9.9</v>
+      </c>
+      <c r="J3">
+        <v>21.1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="L3">
+        <v>1.4</v>
+      </c>
+      <c r="M3">
+        <v>3.9</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="O3">
+        <v>8.6</v>
+      </c>
+      <c r="P3">
+        <v>17.2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.499</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.504</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>8</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="V3">
+        <v>1.4</v>
+      </c>
+      <c r="W3">
+        <v>6</v>
+      </c>
+      <c r="X3">
+        <v>7.4</v>
+      </c>
+      <c r="Y3">
+        <v>7.2</v>
+      </c>
+      <c r="Z3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA3">
+        <v>0.7</v>
+      </c>
+      <c r="AB3">
+        <v>3.3</v>
+      </c>
+      <c r="AC3">
+        <v>1.8</v>
+      </c>
+      <c r="AD3">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>79</v>
+      </c>
+      <c r="H4">
+        <v>42.5</v>
+      </c>
+      <c r="I4">
+        <v>11.1</v>
+      </c>
+      <c r="J4">
+        <v>23.1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="L4">
+        <v>1.6</v>
+      </c>
+      <c r="M4">
+        <v>4.8</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="O4">
+        <v>9.5</v>
+      </c>
+      <c r="P4">
+        <v>18.3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="S4">
+        <v>7.6</v>
+      </c>
+      <c r="T4">
+        <v>10.3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="V4">
+        <v>0.9</v>
+      </c>
+      <c r="W4">
+        <v>6.1</v>
+      </c>
+      <c r="X4">
+        <v>7</v>
+      </c>
+      <c r="Y4">
+        <v>6.6</v>
+      </c>
+      <c r="Z4">
+        <v>1.6</v>
+      </c>
+      <c r="AA4">
+        <v>0.8</v>
+      </c>
+      <c r="AB4">
+        <v>3.3</v>
+      </c>
+      <c r="AC4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD4">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2007</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5">
+        <v>78</v>
+      </c>
+      <c r="G5">
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <v>40.9</v>
+      </c>
+      <c r="I5">
+        <v>9.9</v>
+      </c>
+      <c r="J5">
+        <v>20.8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="L5">
+        <v>1.3</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="O5">
+        <v>8.6</v>
+      </c>
+      <c r="P5">
+        <v>16.8</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="S5">
+        <v>6.3</v>
+      </c>
+      <c r="T5">
+        <v>9</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="V5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W5">
+        <v>5.7</v>
+      </c>
+      <c r="X5">
+        <v>6.7</v>
+      </c>
+      <c r="Y5">
+        <v>6</v>
+      </c>
+      <c r="Z5">
+        <v>1.6</v>
+      </c>
+      <c r="AA5">
+        <v>0.7</v>
+      </c>
+      <c r="AB5">
+        <v>3.2</v>
+      </c>
+      <c r="AC5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD5">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2008</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>74</v>
+      </c>
+      <c r="H6">
+        <v>40.4</v>
+      </c>
+      <c r="I6">
+        <v>10.6</v>
+      </c>
+      <c r="J6">
+        <v>21.9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="L6">
+        <v>1.5</v>
+      </c>
+      <c r="M6">
+        <v>4.8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="O6">
+        <v>9.1</v>
+      </c>
+      <c r="P6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="S6">
+        <v>7.3</v>
+      </c>
+      <c r="T6">
+        <v>10.3</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="V6">
+        <v>1.8</v>
+      </c>
+      <c r="W6">
+        <v>6.1</v>
+      </c>
+      <c r="X6">
+        <v>7.9</v>
+      </c>
+      <c r="Y6">
+        <v>7.2</v>
+      </c>
+      <c r="Z6">
+        <v>1.8</v>
+      </c>
+      <c r="AA6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>3.4</v>
+      </c>
+      <c r="AC6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2009</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>81</v>
+      </c>
+      <c r="G7">
+        <v>81</v>
+      </c>
+      <c r="H7">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J7">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="L7">
+        <v>1.6</v>
+      </c>
+      <c r="M7">
+        <v>4.7</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="O7">
+        <v>8.1</v>
+      </c>
+      <c r="P7">
+        <v>15.2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="S7">
+        <v>7.3</v>
+      </c>
+      <c r="T7">
+        <v>9.4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="V7">
+        <v>1.3</v>
+      </c>
+      <c r="W7">
+        <v>6.3</v>
+      </c>
+      <c r="X7">
+        <v>7.6</v>
+      </c>
+      <c r="Y7">
+        <v>7.2</v>
+      </c>
+      <c r="Z7">
+        <v>1.7</v>
+      </c>
+      <c r="AA7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>1.7</v>
+      </c>
+      <c r="AD7">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2010</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8">
+        <v>76</v>
+      </c>
+      <c r="G8">
+        <v>76</v>
+      </c>
+      <c r="H8">
+        <v>39</v>
+      </c>
+      <c r="I8">
+        <v>10.1</v>
+      </c>
+      <c r="J8">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.503</v>
+      </c>
+      <c r="L8">
+        <v>1.7</v>
+      </c>
+      <c r="M8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="O8">
+        <v>8.4</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="S8">
+        <v>7.8</v>
+      </c>
+      <c r="T8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="V8">
+        <v>0.9</v>
+      </c>
+      <c r="W8">
+        <v>6.4</v>
+      </c>
+      <c r="X8">
+        <v>7.3</v>
+      </c>
+      <c r="Y8">
+        <v>8.6</v>
+      </c>
+      <c r="Z8">
+        <v>1.6</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>3.4</v>
+      </c>
+      <c r="AC8">
+        <v>1.6</v>
+      </c>
+      <c r="AD8">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2011</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>79</v>
+      </c>
+      <c r="H9">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="I9">
+        <v>9.6</v>
+      </c>
+      <c r="J9">
+        <v>18.8</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="L9">
+        <v>1.2</v>
+      </c>
+      <c r="M9">
+        <v>3.5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="O9">
+        <v>8.4</v>
+      </c>
+      <c r="P9">
+        <v>15.3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="S9">
+        <v>6.4</v>
+      </c>
+      <c r="T9">
+        <v>8.4</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>6.5</v>
+      </c>
+      <c r="X9">
+        <v>7.5</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <v>1.6</v>
+      </c>
+      <c r="AA9">
+        <v>0.6</v>
+      </c>
+      <c r="AB9">
+        <v>3.6</v>
+      </c>
+      <c r="AC9">
+        <v>2.1</v>
+      </c>
+      <c r="AD9">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2012</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>62</v>
+      </c>
+      <c r="G10">
+        <v>62</v>
+      </c>
+      <c r="H10">
+        <v>37.5</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="L10">
+        <v>0.9</v>
+      </c>
+      <c r="M10">
+        <v>2.4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="O10">
+        <v>9.1</v>
+      </c>
+      <c r="P10">
+        <v>16.5</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="S10">
+        <v>6.2</v>
+      </c>
+      <c r="T10">
+        <v>8.1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="V10">
+        <v>1.5</v>
+      </c>
+      <c r="W10">
+        <v>6.4</v>
+      </c>
+      <c r="X10">
+        <v>7.9</v>
+      </c>
+      <c r="Y10">
+        <v>6.2</v>
+      </c>
+      <c r="Z10">
+        <v>1.9</v>
+      </c>
+      <c r="AA10">
+        <v>0.8</v>
+      </c>
+      <c r="AB10">
+        <v>3.4</v>
+      </c>
+      <c r="AC10">
+        <v>1.5</v>
+      </c>
+      <c r="AD10">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2013</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>76</v>
+      </c>
+      <c r="G11">
+        <v>76</v>
+      </c>
+      <c r="H11">
+        <v>37.9</v>
+      </c>
+      <c r="I11">
+        <v>10.1</v>
+      </c>
+      <c r="J11">
+        <v>17.8</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="L11">
+        <v>1.4</v>
+      </c>
+      <c r="M11">
+        <v>3.3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="O11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P11">
+        <v>14.5</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="S11">
+        <v>5.3</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.753</v>
+      </c>
+      <c r="V11">
+        <v>1.3</v>
+      </c>
+      <c r="W11">
+        <v>6.8</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>7.3</v>
+      </c>
+      <c r="Z11">
+        <v>1.7</v>
+      </c>
+      <c r="AA11">
+        <v>0.9</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>1.4</v>
+      </c>
+      <c r="AD11">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2014</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>77</v>
+      </c>
+      <c r="G12">
+        <v>77</v>
+      </c>
+      <c r="H12">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="L12">
+        <v>1.5</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.379</v>
+      </c>
+      <c r="O12">
+        <v>8.5</v>
+      </c>
+      <c r="P12">
+        <v>13.6</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.622</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="S12">
+        <v>5.7</v>
+      </c>
+      <c r="T12">
+        <v>7.6</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="V12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W12">
+        <v>5.9</v>
+      </c>
+      <c r="X12">
+        <v>6.9</v>
+      </c>
+      <c r="Y12">
+        <v>6.3</v>
+      </c>
+      <c r="Z12">
+        <v>1.6</v>
+      </c>
+      <c r="AA12">
+        <v>0.3</v>
+      </c>
+      <c r="AB12">
+        <v>3.5</v>
+      </c>
+      <c r="AC12">
+        <v>1.6</v>
+      </c>
+      <c r="AD12">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2015</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13">
+        <v>69</v>
+      </c>
+      <c r="G13">
+        <v>69</v>
+      </c>
+      <c r="H13">
+        <v>36.1</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>18.5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="L13">
+        <v>1.7</v>
+      </c>
+      <c r="M13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="O13">
+        <v>7.3</v>
+      </c>
+      <c r="P13">
+        <v>13.6</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="S13">
+        <v>5.4</v>
+      </c>
+      <c r="T13">
+        <v>7.7</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="V13">
+        <v>0.7</v>
+      </c>
+      <c r="W13">
+        <v>5.3</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>7.4</v>
+      </c>
+      <c r="Z13">
+        <v>1.6</v>
+      </c>
+      <c r="AA13">
+        <v>0.7</v>
+      </c>
+      <c r="AB13">
+        <v>3.9</v>
+      </c>
+      <c r="AC13">
+        <v>2</v>
+      </c>
+      <c r="AD13">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2016</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <v>76</v>
+      </c>
+      <c r="G14">
+        <v>76</v>
+      </c>
+      <c r="H14">
+        <v>35.6</v>
+      </c>
+      <c r="I14">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J14">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="L14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M14">
+        <v>3.7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.309</v>
+      </c>
+      <c r="O14">
+        <v>8.6</v>
+      </c>
+      <c r="P14">
+        <v>14.9</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="S14">
+        <v>4.7</v>
+      </c>
+      <c r="T14">
+        <v>6.5</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="V14">
+        <v>1.5</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>7.4</v>
+      </c>
+      <c r="Y14">
+        <v>6.8</v>
+      </c>
+      <c r="Z14">
+        <v>1.4</v>
+      </c>
+      <c r="AA14">
+        <v>0.6</v>
+      </c>
+      <c r="AB14">
+        <v>3.3</v>
+      </c>
+      <c r="AC14">
+        <v>1.9</v>
+      </c>
+      <c r="AD14">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <v>74</v>
+      </c>
+      <c r="G15">
+        <v>74</v>
+      </c>
+      <c r="H15">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I15">
+        <v>9.9</v>
+      </c>
+      <c r="J15">
+        <v>18.2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="L15">
+        <v>1.7</v>
+      </c>
+      <c r="M15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="O15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P15">
+        <v>13.5</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="S15">
+        <v>4.8</v>
+      </c>
+      <c r="T15">
+        <v>7.2</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="V15">
+        <v>1.3</v>
+      </c>
+      <c r="W15">
+        <v>7.3</v>
+      </c>
+      <c r="X15">
+        <v>8.6</v>
+      </c>
+      <c r="Y15">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Z15">
+        <v>1.2</v>
+      </c>
+      <c r="AA15">
+        <v>0.6</v>
+      </c>
+      <c r="AB15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AC15">
+        <v>1.8</v>
+      </c>
+      <c r="AD15">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2018</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>82</v>
+      </c>
+      <c r="G16">
+        <v>82</v>
+      </c>
+      <c r="H16">
+        <v>36.9</v>
+      </c>
+      <c r="I16">
+        <v>10.5</v>
+      </c>
+      <c r="J16">
+        <v>19.3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L16">
+        <v>1.8</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="O16">
+        <v>8.6</v>
+      </c>
+      <c r="P16">
+        <v>14.3</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="S16">
+        <v>4.7</v>
+      </c>
+      <c r="T16">
+        <v>6.5</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="V16">
+        <v>1.2</v>
+      </c>
+      <c r="W16">
+        <v>7.5</v>
+      </c>
+      <c r="X16">
+        <v>8.6</v>
+      </c>
+      <c r="Y16">
+        <v>9.1</v>
+      </c>
+      <c r="Z16">
+        <v>1.4</v>
+      </c>
+      <c r="AA16">
+        <v>0.9</v>
+      </c>
+      <c r="AB16">
+        <v>4.2</v>
+      </c>
+      <c r="AC16">
+        <v>1.7</v>
+      </c>
+      <c r="AD16">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2019</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>55</v>
+      </c>
+      <c r="H17">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="I17">
+        <v>10.1</v>
+      </c>
+      <c r="J17">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>5.9</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="O17">
+        <v>8.1</v>
+      </c>
+      <c r="P17">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S17">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T17">
+        <v>7.6</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>7.4</v>
+      </c>
+      <c r="X17">
+        <v>8.5</v>
+      </c>
+      <c r="Y17">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z17">
+        <v>1.3</v>
+      </c>
+      <c r="AA17">
+        <v>0.6</v>
+      </c>
+      <c r="AB17">
+        <v>3.6</v>
+      </c>
+      <c r="AC17">
+        <v>1.7</v>
+      </c>
+      <c r="AD17">
+        <v>27.4</v>
+      </c>
+    </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2004</v>
+        <v>2020</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F18">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G18">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H18">
-        <v>39.5</v>
+        <v>34.6</v>
       </c>
       <c r="I18">
-        <v>7.9</v>
+        <v>9.6</v>
       </c>
       <c r="J18">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="K18">
-        <v>0.41699999999999998</v>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.49299999999999999</v>
       </c>
       <c r="L18">
-        <v>0.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M18">
-        <v>2.7</v>
-      </c>
-      <c r="N18">
-        <v>0.28999999999999998</v>
+        <v>6.3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.34799999999999998</v>
       </c>
       <c r="O18">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="P18">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="Q18">
-        <v>0.438</v>
-      </c>
-      <c r="R18">
-        <v>0.438</v>
+        <v>13.1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.55000000000000004</v>
       </c>
       <c r="S18">
-        <v>4.4000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="T18">
-        <v>5.8</v>
-      </c>
-      <c r="U18">
-        <v>0.754</v>
+        <v>5.7</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0.69299999999999995</v>
       </c>
       <c r="V18">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>4.2</v>
+        <v>6.9</v>
       </c>
       <c r="X18">
-        <v>5.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y18">
-        <v>5.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Z18">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AA18">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AB18">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AC18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD18">
-        <v>20.9</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2005</v>
+        <v>2021</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F19">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G19">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H19">
-        <v>42.4</v>
+        <v>33.4</v>
       </c>
       <c r="I19">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="J19">
-        <v>21.1</v>
-      </c>
-      <c r="K19">
-        <v>0.47199999999999998</v>
+        <v>18.3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.51300000000000001</v>
       </c>
       <c r="L19">
-        <v>1.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M19">
-        <v>3.9</v>
-      </c>
-      <c r="N19">
-        <v>0.35099999999999998</v>
+        <v>6.3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.36499999999999999</v>
       </c>
       <c r="O19">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="P19">
-        <v>17.2</v>
-      </c>
-      <c r="Q19">
-        <v>0.499</v>
-      </c>
-      <c r="R19">
-        <v>0.504</v>
+        <v>12</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.57599999999999996</v>
       </c>
       <c r="S19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T19">
-        <v>8</v>
-      </c>
-      <c r="U19">
-        <v>0.75</v>
+        <v>5.7</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.69799999999999995</v>
       </c>
       <c r="V19">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="W19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X19">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="Y19">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="Z19">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA19">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AB19">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AC19">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AD19">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2006</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20">
-        <v>79</v>
-      </c>
-      <c r="G20">
-        <v>79</v>
-      </c>
-      <c r="H20">
-        <v>42.5</v>
-      </c>
-      <c r="I20">
-        <v>11.1</v>
-      </c>
-      <c r="J20">
-        <v>23.1</v>
-      </c>
-      <c r="K20">
-        <v>0.48</v>
-      </c>
-      <c r="L20">
-        <v>1.6</v>
-      </c>
-      <c r="M20">
-        <v>4.8</v>
-      </c>
-      <c r="N20">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="O20">
-        <v>9.5</v>
-      </c>
-      <c r="P20">
-        <v>18.3</v>
-      </c>
-      <c r="Q20">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="R20">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="S20">
-        <v>7.6</v>
-      </c>
-      <c r="T20">
-        <v>10.3</v>
-      </c>
-      <c r="U20">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="V20">
-        <v>0.9</v>
-      </c>
-      <c r="W20">
-        <v>6.1</v>
-      </c>
-      <c r="X20">
-        <v>7</v>
-      </c>
-      <c r="Y20">
-        <v>6.6</v>
-      </c>
-      <c r="Z20">
-        <v>1.6</v>
-      </c>
-      <c r="AA20">
-        <v>0.8</v>
-      </c>
-      <c r="AB20">
-        <v>3.3</v>
-      </c>
-      <c r="AC20">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AD20">
-        <v>31.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2007</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21">
-        <v>78</v>
-      </c>
-      <c r="G21">
-        <v>78</v>
-      </c>
-      <c r="H21">
-        <v>40.9</v>
-      </c>
-      <c r="I21">
-        <v>9.9</v>
-      </c>
-      <c r="J21">
-        <v>20.8</v>
-      </c>
-      <c r="K21">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="L21">
-        <v>1.3</v>
-      </c>
-      <c r="M21">
-        <v>4</v>
-      </c>
-      <c r="N21">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="O21">
-        <v>8.6</v>
-      </c>
-      <c r="P21">
-        <v>16.8</v>
-      </c>
-      <c r="Q21">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="R21">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="S21">
-        <v>6.3</v>
-      </c>
-      <c r="T21">
-        <v>9</v>
-      </c>
-      <c r="U21">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="V21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W21">
-        <v>5.7</v>
-      </c>
-      <c r="X21">
-        <v>6.7</v>
-      </c>
-      <c r="Y21">
-        <v>6</v>
-      </c>
-      <c r="Z21">
-        <v>1.6</v>
-      </c>
-      <c r="AA21">
-        <v>0.7</v>
-      </c>
-      <c r="AB21">
-        <v>3.2</v>
-      </c>
-      <c r="AC21">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AD21">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2008</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22">
-        <v>75</v>
-      </c>
-      <c r="G22">
-        <v>74</v>
-      </c>
-      <c r="H22">
-        <v>40.4</v>
-      </c>
-      <c r="I22">
-        <v>10.6</v>
-      </c>
-      <c r="J22">
-        <v>21.9</v>
-      </c>
-      <c r="K22">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="L22">
-        <v>1.5</v>
-      </c>
-      <c r="M22">
-        <v>4.8</v>
-      </c>
-      <c r="N22">
-        <v>0.315</v>
-      </c>
-      <c r="O22">
-        <v>9.1</v>
-      </c>
-      <c r="P22">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="Q22">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="R22">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="S22">
-        <v>7.3</v>
-      </c>
-      <c r="T22">
-        <v>10.3</v>
-      </c>
-      <c r="U22">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
-      <c r="W22">
-        <v>6.1</v>
-      </c>
-      <c r="X22">
-        <v>7.9</v>
-      </c>
-      <c r="Y22">
-        <v>7.2</v>
-      </c>
-      <c r="Z22">
-        <v>1.8</v>
-      </c>
-      <c r="AA22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AB22">
-        <v>3.4</v>
-      </c>
-      <c r="AC22">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AD22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2009</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23">
-        <v>81</v>
-      </c>
-      <c r="G23">
-        <v>81</v>
-      </c>
-      <c r="H23">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="I23">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J23">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="K23">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="L23">
-        <v>1.6</v>
-      </c>
-      <c r="M23">
-        <v>4.7</v>
-      </c>
-      <c r="N23">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="O23">
-        <v>8.1</v>
-      </c>
-      <c r="P23">
-        <v>15.2</v>
-      </c>
-      <c r="Q23">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="R23">
-        <v>0.53</v>
-      </c>
-      <c r="S23">
-        <v>7.3</v>
-      </c>
-      <c r="T23">
-        <v>9.4</v>
-      </c>
-      <c r="U23">
-        <v>0.78</v>
-      </c>
-      <c r="V23">
-        <v>1.3</v>
-      </c>
-      <c r="W23">
-        <v>6.3</v>
-      </c>
-      <c r="X23">
-        <v>7.6</v>
-      </c>
-      <c r="Y23">
-        <v>7.2</v>
-      </c>
-      <c r="Z23">
-        <v>1.7</v>
-      </c>
-      <c r="AA23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AB23">
-        <v>3</v>
-      </c>
-      <c r="AC23">
-        <v>1.7</v>
-      </c>
-      <c r="AD23">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2010</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24">
-        <v>76</v>
-      </c>
-      <c r="G24">
-        <v>76</v>
-      </c>
-      <c r="H24">
-        <v>39</v>
-      </c>
-      <c r="I24">
-        <v>10.1</v>
-      </c>
-      <c r="J24">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="K24">
-        <v>0.503</v>
-      </c>
-      <c r="L24">
-        <v>1.7</v>
-      </c>
-      <c r="M24">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N24">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="O24">
-        <v>8.4</v>
-      </c>
-      <c r="P24">
-        <v>15</v>
-      </c>
-      <c r="Q24">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="R24">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="S24">
-        <v>7.8</v>
-      </c>
-      <c r="T24">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="U24">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="V24">
-        <v>0.9</v>
-      </c>
-      <c r="W24">
-        <v>6.4</v>
-      </c>
-      <c r="X24">
-        <v>7.3</v>
-      </c>
-      <c r="Y24">
-        <v>8.6</v>
-      </c>
-      <c r="Z24">
-        <v>1.6</v>
-      </c>
-      <c r="AA24">
-        <v>1</v>
-      </c>
-      <c r="AB24">
-        <v>3.4</v>
-      </c>
-      <c r="AC24">
-        <v>1.6</v>
-      </c>
-      <c r="AD24">
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2011</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25">
-        <v>79</v>
-      </c>
-      <c r="G25">
-        <v>79</v>
-      </c>
-      <c r="H25">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="I25">
-        <v>9.6</v>
-      </c>
-      <c r="J25">
-        <v>18.8</v>
-      </c>
-      <c r="K25">
-        <v>0.51</v>
-      </c>
-      <c r="L25">
-        <v>1.2</v>
-      </c>
-      <c r="M25">
-        <v>3.5</v>
-      </c>
-      <c r="N25">
-        <v>0.33</v>
-      </c>
-      <c r="O25">
-        <v>8.4</v>
-      </c>
-      <c r="P25">
-        <v>15.3</v>
-      </c>
-      <c r="Q25">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="R25">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="S25">
-        <v>6.4</v>
-      </c>
-      <c r="T25">
-        <v>8.4</v>
-      </c>
-      <c r="U25">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>6.5</v>
-      </c>
-      <c r="X25">
-        <v>7.5</v>
-      </c>
-      <c r="Y25">
-        <v>7</v>
-      </c>
-      <c r="Z25">
-        <v>1.6</v>
-      </c>
-      <c r="AA25">
-        <v>0.6</v>
-      </c>
-      <c r="AB25">
-        <v>3.6</v>
-      </c>
-      <c r="AC25">
-        <v>2.1</v>
-      </c>
-      <c r="AD25">
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2012</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26">
-        <v>62</v>
-      </c>
-      <c r="G26">
-        <v>62</v>
-      </c>
-      <c r="H26">
-        <v>37.5</v>
-      </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
-      <c r="J26">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="K26">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="L26">
-        <v>0.9</v>
-      </c>
-      <c r="M26">
-        <v>2.4</v>
-      </c>
-      <c r="N26">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="O26">
-        <v>9.1</v>
-      </c>
-      <c r="P26">
-        <v>16.5</v>
-      </c>
-      <c r="Q26">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="R26">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="S26">
-        <v>6.2</v>
-      </c>
-      <c r="T26">
-        <v>8.1</v>
-      </c>
-      <c r="U26">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="V26">
-        <v>1.5</v>
-      </c>
-      <c r="W26">
-        <v>6.4</v>
-      </c>
-      <c r="X26">
-        <v>7.9</v>
-      </c>
-      <c r="Y26">
-        <v>6.2</v>
-      </c>
-      <c r="Z26">
-        <v>1.9</v>
-      </c>
-      <c r="AA26">
-        <v>0.8</v>
-      </c>
-      <c r="AB26">
-        <v>3.4</v>
-      </c>
-      <c r="AC26">
-        <v>1.5</v>
-      </c>
-      <c r="AD26">
-        <v>27.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2013</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27">
-        <v>76</v>
-      </c>
-      <c r="G27">
-        <v>76</v>
-      </c>
-      <c r="H27">
-        <v>37.9</v>
-      </c>
-      <c r="I27">
-        <v>10.1</v>
-      </c>
-      <c r="J27">
-        <v>17.8</v>
-      </c>
-      <c r="K27">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="L27">
-        <v>1.4</v>
-      </c>
-      <c r="M27">
-        <v>3.3</v>
-      </c>
-      <c r="N27">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="O27">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="P27">
-        <v>14.5</v>
-      </c>
-      <c r="Q27">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="R27">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="S27">
-        <v>5.3</v>
-      </c>
-      <c r="T27">
-        <v>7</v>
-      </c>
-      <c r="U27">
-        <v>0.753</v>
-      </c>
-      <c r="V27">
-        <v>1.3</v>
-      </c>
-      <c r="W27">
-        <v>6.8</v>
-      </c>
-      <c r="X27">
-        <v>8</v>
-      </c>
-      <c r="Y27">
-        <v>7.3</v>
-      </c>
-      <c r="Z27">
-        <v>1.7</v>
-      </c>
-      <c r="AA27">
-        <v>0.9</v>
-      </c>
-      <c r="AB27">
-        <v>3</v>
-      </c>
-      <c r="AC27">
-        <v>1.4</v>
-      </c>
-      <c r="AD27">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2014</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28">
-        <v>77</v>
-      </c>
-      <c r="G28">
-        <v>77</v>
-      </c>
-      <c r="H28">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="I28">
-        <v>10</v>
-      </c>
-      <c r="J28">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="K28">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="L28">
-        <v>1.5</v>
-      </c>
-      <c r="M28">
-        <v>4</v>
-      </c>
-      <c r="N28">
-        <v>0.379</v>
-      </c>
-      <c r="O28">
-        <v>8.5</v>
-      </c>
-      <c r="P28">
-        <v>13.6</v>
-      </c>
-      <c r="Q28">
-        <v>0.622</v>
-      </c>
-      <c r="R28">
-        <v>0.61</v>
-      </c>
-      <c r="S28">
-        <v>5.7</v>
-      </c>
-      <c r="T28">
-        <v>7.6</v>
-      </c>
-      <c r="U28">
-        <v>0.75</v>
-      </c>
-      <c r="V28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W28">
-        <v>5.9</v>
-      </c>
-      <c r="X28">
-        <v>6.9</v>
-      </c>
-      <c r="Y28">
-        <v>6.3</v>
-      </c>
-      <c r="Z28">
-        <v>1.6</v>
-      </c>
-      <c r="AA28">
-        <v>0.3</v>
-      </c>
-      <c r="AB28">
-        <v>3.5</v>
-      </c>
-      <c r="AC28">
-        <v>1.6</v>
-      </c>
-      <c r="AD28">
-        <v>27.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2015</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29">
-        <v>69</v>
-      </c>
-      <c r="G29">
-        <v>69</v>
-      </c>
-      <c r="H29">
-        <v>36.1</v>
-      </c>
-      <c r="I29">
-        <v>9</v>
-      </c>
-      <c r="J29">
-        <v>18.5</v>
-      </c>
-      <c r="K29">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="L29">
-        <v>1.7</v>
-      </c>
-      <c r="M29">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N29">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="O29">
-        <v>7.3</v>
-      </c>
-      <c r="P29">
-        <v>13.6</v>
-      </c>
-      <c r="Q29">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="R29">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="S29">
-        <v>5.4</v>
-      </c>
-      <c r="T29">
-        <v>7.7</v>
-      </c>
-      <c r="U29">
-        <v>0.71</v>
-      </c>
-      <c r="V29">
-        <v>0.7</v>
-      </c>
-      <c r="W29">
-        <v>5.3</v>
-      </c>
-      <c r="X29">
-        <v>6</v>
-      </c>
-      <c r="Y29">
-        <v>7.4</v>
-      </c>
-      <c r="Z29">
-        <v>1.6</v>
-      </c>
-      <c r="AA29">
-        <v>0.7</v>
-      </c>
-      <c r="AB29">
-        <v>3.9</v>
-      </c>
-      <c r="AC29">
-        <v>2</v>
-      </c>
-      <c r="AD29">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2016</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30">
-        <v>76</v>
-      </c>
-      <c r="G30">
-        <v>76</v>
-      </c>
-      <c r="H30">
-        <v>35.6</v>
-      </c>
-      <c r="I30">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J30">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="K30">
-        <v>0.52</v>
-      </c>
-      <c r="L30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M30">
-        <v>3.7</v>
-      </c>
-      <c r="N30">
-        <v>0.309</v>
-      </c>
-      <c r="O30">
-        <v>8.6</v>
-      </c>
-      <c r="P30">
-        <v>14.9</v>
-      </c>
-      <c r="Q30">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="R30">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="S30">
-        <v>4.7</v>
-      </c>
-      <c r="T30">
-        <v>6.5</v>
-      </c>
-      <c r="U30">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="V30">
-        <v>1.5</v>
-      </c>
-      <c r="W30">
-        <v>6</v>
-      </c>
-      <c r="X30">
-        <v>7.4</v>
-      </c>
-      <c r="Y30">
-        <v>6.8</v>
-      </c>
-      <c r="Z30">
-        <v>1.4</v>
-      </c>
-      <c r="AA30">
-        <v>0.6</v>
-      </c>
-      <c r="AB30">
-        <v>3.3</v>
-      </c>
-      <c r="AC30">
-        <v>1.9</v>
-      </c>
-      <c r="AD30">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31">
-        <v>74</v>
-      </c>
-      <c r="G31">
-        <v>74</v>
-      </c>
-      <c r="H31">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="I31">
-        <v>9.9</v>
-      </c>
-      <c r="J31">
-        <v>18.2</v>
-      </c>
-      <c r="K31">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="L31">
-        <v>1.7</v>
-      </c>
-      <c r="M31">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="N31">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="O31">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="P31">
-        <v>13.5</v>
-      </c>
-      <c r="Q31">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="R31">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="S31">
-        <v>4.8</v>
-      </c>
-      <c r="T31">
-        <v>7.2</v>
-      </c>
-      <c r="U31">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="V31">
-        <v>1.3</v>
-      </c>
-      <c r="W31">
-        <v>7.3</v>
-      </c>
-      <c r="X31">
-        <v>8.6</v>
-      </c>
-      <c r="Y31">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="Z31">
-        <v>1.2</v>
-      </c>
-      <c r="AA31">
-        <v>0.6</v>
-      </c>
-      <c r="AB31">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AC31">
-        <v>1.8</v>
-      </c>
-      <c r="AD31">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32">
-        <v>82</v>
-      </c>
-      <c r="G32">
-        <v>82</v>
-      </c>
-      <c r="H32">
-        <v>36.9</v>
-      </c>
-      <c r="I32">
-        <v>10.5</v>
-      </c>
-      <c r="J32">
-        <v>19.3</v>
-      </c>
-      <c r="K32">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="L32">
-        <v>1.8</v>
-      </c>
-      <c r="M32">
-        <v>5</v>
-      </c>
-      <c r="N32">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="O32">
-        <v>8.6</v>
-      </c>
-      <c r="P32">
-        <v>14.3</v>
-      </c>
-      <c r="Q32">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="R32">
-        <v>0.59</v>
-      </c>
-      <c r="S32">
-        <v>4.7</v>
-      </c>
-      <c r="T32">
-        <v>6.5</v>
-      </c>
-      <c r="U32">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="V32">
-        <v>1.2</v>
-      </c>
-      <c r="W32">
-        <v>7.5</v>
-      </c>
-      <c r="X32">
-        <v>8.6</v>
-      </c>
-      <c r="Y32">
-        <v>9.1</v>
-      </c>
-      <c r="Z32">
-        <v>1.4</v>
-      </c>
-      <c r="AA32">
-        <v>0.9</v>
-      </c>
-      <c r="AB32">
-        <v>4.2</v>
-      </c>
-      <c r="AC32">
-        <v>1.7</v>
-      </c>
-      <c r="AD32">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33">
-        <v>55</v>
-      </c>
-      <c r="G33">
-        <v>55</v>
-      </c>
-      <c r="H33">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="I33">
-        <v>10.1</v>
-      </c>
-      <c r="J33">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="K33">
-        <v>0.51</v>
-      </c>
-      <c r="L33">
-        <v>2</v>
-      </c>
-      <c r="M33">
-        <v>5.9</v>
-      </c>
-      <c r="N33">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="O33">
-        <v>8.1</v>
-      </c>
-      <c r="P33">
-        <v>14</v>
-      </c>
-      <c r="Q33">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="R33">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="S33">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="T33">
-        <v>7.6</v>
-      </c>
-      <c r="U33">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>7.4</v>
-      </c>
-      <c r="X33">
-        <v>8.5</v>
-      </c>
-      <c r="Y33">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Z33">
-        <v>1.3</v>
-      </c>
-      <c r="AA33">
-        <v>0.6</v>
-      </c>
-      <c r="AB33">
-        <v>3.6</v>
-      </c>
-      <c r="AC33">
-        <v>1.7</v>
-      </c>
-      <c r="AD33">
-        <v>27.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34">
-        <v>67</v>
-      </c>
-      <c r="G34">
-        <v>67</v>
-      </c>
-      <c r="H34">
-        <v>34.6</v>
-      </c>
-      <c r="I34">
-        <v>9.6</v>
-      </c>
-      <c r="J34">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="K34">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="L34">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M34">
-        <v>6.3</v>
-      </c>
-      <c r="N34">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="O34">
-        <v>7.4</v>
-      </c>
-      <c r="P34">
-        <v>13.1</v>
-      </c>
-      <c r="Q34">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="R34">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="S34">
-        <v>3.9</v>
-      </c>
-      <c r="T34">
-        <v>5.7</v>
-      </c>
-      <c r="U34">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>6.9</v>
-      </c>
-      <c r="X34">
-        <v>7.8</v>
-      </c>
-      <c r="Y34">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Z34">
-        <v>1.2</v>
-      </c>
-      <c r="AA34">
-        <v>0.5</v>
-      </c>
-      <c r="AB34">
-        <v>3.9</v>
-      </c>
-      <c r="AC34">
-        <v>1.8</v>
-      </c>
-      <c r="AD34">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35">
-        <v>45</v>
-      </c>
-      <c r="G35">
-        <v>45</v>
-      </c>
-      <c r="H35">
-        <v>33.4</v>
-      </c>
-      <c r="I35">
-        <v>9.4</v>
-      </c>
-      <c r="J35">
-        <v>18.3</v>
-      </c>
-      <c r="K35">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="L35">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M35">
-        <v>6.3</v>
-      </c>
-      <c r="N35">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="O35">
-        <v>7.1</v>
-      </c>
-      <c r="P35">
-        <v>12</v>
-      </c>
-      <c r="Q35">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="R35">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="S35">
-        <v>4</v>
-      </c>
-      <c r="T35">
-        <v>5.7</v>
-      </c>
-      <c r="U35">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="V35">
-        <v>0.6</v>
-      </c>
-      <c r="W35">
-        <v>7</v>
-      </c>
-      <c r="X35">
-        <v>7.7</v>
-      </c>
-      <c r="Y35">
-        <v>7.8</v>
-      </c>
-      <c r="Z35">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AA35">
-        <v>0.6</v>
-      </c>
-      <c r="AB35">
-        <v>3.7</v>
-      </c>
-      <c r="AC35">
-        <v>1.6</v>
-      </c>
-      <c r="AD35">
         <v>25</v>
       </c>
     </row>
